--- a/DragPrediction/NL2VP DragX/0.5T/n/4/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.5T/n/4/test.xlsx
@@ -348,15 +348,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -372,8 +372,11 @@
       <c r="E1">
         <v>8.1675991735537194E-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>13.430944999999999</v>
       </c>
@@ -394,8 +397,16 @@
         <f>SUM(E2:E25)</f>
         <v>2.3897618443136781</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f>A2*$G$1</f>
+        <v>0.56409969000000004</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G25)</f>
+        <v>12.288800580000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>46.524366999999998</v>
       </c>
@@ -412,8 +423,12 @@
         <f t="shared" ref="E3:E25" si="0">A3*$E$1</f>
         <v>0.37999238145930991</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f t="shared" ref="G3:G25" si="1">A3*$G$1</f>
+        <v>1.9540234140000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>13.968038</v>
       </c>
@@ -430,8 +445,12 @@
         <f t="shared" si="0"/>
         <v>0.11408533562496695</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.586657596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>49.047238</v>
       </c>
@@ -448,8 +467,12 @@
         <f t="shared" si="0"/>
         <v>0.40059818055389257</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>2.0599839960000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>14.399519</v>
       </c>
@@ -466,8 +489,12 @@
         <f t="shared" si="0"/>
         <v>0.11760949948397108</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.60477979800000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>52.750681</v>
       </c>
@@ -484,8 +511,12 @@
         <f t="shared" si="0"/>
         <v>0.43084641853999589</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2.215528602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>10.219096</v>
       </c>
@@ -502,8 +533,12 @@
         <f t="shared" si="0"/>
         <v>8.346548004406612E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.42920203200000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>-0.43255100000000002</v>
       </c>
@@ -520,8 +555,12 @@
         <f t="shared" si="0"/>
         <v>-3.5329031901198348E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-1.8167142000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>11.337972000000001</v>
       </c>
@@ -538,8 +577,12 @@
         <f t="shared" si="0"/>
         <v>9.2604010736975217E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.47619482400000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>-0.73795699999999997</v>
       </c>
@@ -556,8 +599,12 @@
         <f t="shared" si="0"/>
         <v>-6.0273369833181815E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-3.0994193999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>12.048175000000001</v>
       </c>
@@ -574,8 +621,12 @@
         <f t="shared" si="0"/>
         <v>9.8404664172830586E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.50602335000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>13.960141999999999</v>
       </c>
@@ -592,8 +643,12 @@
         <f t="shared" si="0"/>
         <v>0.11402084426189256</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.58632596400000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>10.381594</v>
       </c>
@@ -610,8 +665,12 @@
         <f t="shared" si="0"/>
         <v>8.4792698574570252E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.43602694800000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>7.9430810000000003</v>
       </c>
@@ -628,8 +687,12 @@
         <f t="shared" si="0"/>
         <v>6.4875901811070252E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.33360940200000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>10.224743</v>
       </c>
@@ -646,8 +709,12 @@
         <f t="shared" si="0"/>
         <v>8.3511602476599181E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.42943920600000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>8.7980239999999998</v>
       </c>
@@ -664,8 +731,12 @@
         <f t="shared" si="0"/>
         <v>7.1858733551305787E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.36951700800000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>9.1393649999999997</v>
       </c>
@@ -682,8 +753,12 @@
         <f t="shared" si="0"/>
         <v>7.4646670020805786E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.38385332999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>7.3144590000000003</v>
       </c>
@@ -700,8 +775,12 @@
         <f t="shared" si="0"/>
         <v>5.9741569283392568E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.30720727800000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>12.685337000000001</v>
       </c>
@@ -718,8 +797,12 @@
         <f t="shared" si="0"/>
         <v>0.10360874799745043</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.53278415400000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>-9.1361659999999993</v>
       </c>
@@ -736,8 +819,12 @@
         <f t="shared" si="0"/>
         <v>-7.4620541871049578E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>-0.38371897199999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>11.255101</v>
       </c>
@@ -754,8 +841,12 @@
         <f t="shared" si="0"/>
         <v>9.1927153625863636E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.47271424200000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>-9.2944390000000006</v>
       </c>
@@ -772,8 +863,12 @@
         <f t="shared" si="0"/>
         <v>-7.5913252295045461E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-0.39036643800000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>5.9969890000000001</v>
       </c>
@@ -790,8 +885,12 @@
         <f t="shared" si="0"/>
         <v>4.8981002400210749E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.25187353800000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>-9.2332630000000009</v>
       </c>
@@ -808,8 +907,13 @@
         <f t="shared" si="0"/>
         <v>-7.5413591248004147E-2</v>
       </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>-0.38779704600000003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>